--- a/InputFiles/TC03_Canine_StudyCOTC022-StudyType_Breed.xlsx
+++ b/InputFiles/TC03_Canine_StudyCOTC022-StudyType_Breed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8570F4A2-CB9E-4116-AF00-02E61B4924A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77707ADC-898E-4139-906C-405159C094E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -68,7 +68,7 @@
   <si>
     <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
 MATCH (c)&lt;--(diag:diagnosis)
-WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] demo.breed in ['Chow Chow','Doberman Pinscher', 'Labrador Retriever'] 
+WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] and demo.breed in ['Chow Chow', 'Labrador Retriever'] 
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
 WITH DISTINCT c, s, demo, diag, co
@@ -89,7 +89,7 @@
   MATCH (demo:demographic) 
   MATCH (diag:diagnosis)
  MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-	WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] demo.breed in ['Chow Chow','Doberman Pinscher', 'Labrador Retriever'] 
+	WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] and demo.breed in ['Chow Chow', 'Labrador Retriever'] 
 OPTIONAL MATCH (s)&lt;-[:member_of]-(c:case)
 OPTIONAL MATCH (c)&lt;-[:of_case]-(samp:sample)&lt;-[:of_sample]-(f:file)
 RETURN 
@@ -99,40 +99,8 @@
 	count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATCH (f:file)--&gt;(s:study)
-MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] demo.breed in ['Chow Chow','Doberman Pinscher', 'Labrador Retriever'] 
-WITH DISTINCT f, s
-RETURN 
-  coalesce(f.file_name, '') AS `File Name`,
-  coalesce(f.file_type, '') AS `File Type`,
-  coalesce("study", '') AS `Association`,
-  coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS `File Format`,
-  coalesce(f.file_size, '') AS `Size`,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] demo.breed in ['Chow Chow','Doberman Pinscher', 'Labrador Retriever'] 
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(f.file_type, '') AS `File Type`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `File Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] demo.breed in ['Chow Chow','Doberman Pinscher', 'Labrador Retriever'] 
+WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] and demo.breed in ['Chow Chow', 'Labrador Retriever'] 
  WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -146,6 +114,38 @@
         coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
         coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] and demo.breed in ['Chow Chow', 'Labrador Retriever'] 
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(f.file_type, '') AS `File Type`, 
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `File Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed , 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['COTC022'] and s.clinical_study_type in ["Clinical Trial"] and demo.breed in ['Chow Chow', 'Labrador Retriever'] 
+WITH DISTINCT f, s
+RETURN 
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS `File Format`,
+  coalesce(f.file_size, '') AS `Size`,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
